--- a/position_subtype_HLA/subtype_HLA_regression_result.xlsx
+++ b/position_subtype_HLA/subtype_HLA_regression_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/202/hiv-capsid-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/202/hiv-capsid-data/position_subtype_HLA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F6F78-D069-7045-90C9-88521D387FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CCDC0A-18B6-714D-A588-F60DABD26057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23000" yWindow="3040" windowWidth="41220" windowHeight="22540" xr2:uid="{068E35E1-2D64-824B-A245-3B8D84E36743}"/>
+    <workbookView xWindow="20860" yWindow="3280" windowWidth="41220" windowHeight="22540" xr2:uid="{068E35E1-2D64-824B-A245-3B8D84E36743}"/>
   </bookViews>
   <sheets>
     <sheet name="raw linear reg data" sheetId="2" r:id="rId1"/>
@@ -137,112 +137,112 @@
     <t>Subtype chi-square test and HLA chi-square test mean, Rfit</t>
   </si>
   <si>
+    <t>Subtype chi-square test and HLA chi-square test mean with interaction, Rfit</t>
+  </si>
+  <si>
+    <t>Subtype chi-square test and HLA chi-square test sum, Rfit</t>
+  </si>
+  <si>
+    <t>Subtype chi-square test and HLA chi-square test sum with interaction, Rfit</t>
+  </si>
+  <si>
+    <t>Subtype chi-square test and HLA chi-square test median, Rfit</t>
+  </si>
+  <si>
+    <t>Subtype chi-square test and HLA chi-square test median with interaction, Rfit</t>
+  </si>
+  <si>
     <t>## Call:
 ## rfit.default(formula = Entropy ~ subtype + HLA, data = df)
 ## 
 ## Coefficients:
-##                Estimate  Std. Error t.value   p.value    
-## (Intercept)  2.5159e-01  4.2381e-02  5.9364 1.361e-07 ***
-## subtype      6.3209e-05  4.9850e-06 12.6799 &lt; 2.2e-16 ***
-## HLA         -6.1091e-04  8.5152e-04 -0.7174    0.4758    
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.6188825 
-## Reduction in Dispersion Test: 51.15167 p-value: 0</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and HLA chi-square test mean with interaction, Rfit</t>
+##               Estimate Std. Error t.value p.value    
+## (Intercept) 2.9219e-17 2.2131e-03   0.000       1    
+## subtype     7.5609e-05 5.6105e-07 134.763  &lt;2e-16 ***
+## HLA         2.9159e-03 1.0026e-04  29.084  &lt;2e-16 ***
+## ---
+## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
+## 
+## Multiple R-squared (Robust): 0.9052548 
+## Reduction in Dispersion Test: 1089.227 p-value: 0</t>
   </si>
   <si>
     <t>## Call:
 ## rfit.default(formula = Entropy ~ subtype * HLA, data = df)
 ## 
 ## Coefficients:
-##                Estimate  Std. Error t.value   p.value    
-## (Intercept)  2.0740e-01  5.1829e-02  4.0015 0.0001705 ***
-## subtype      7.1629e-05  6.9214e-06 10.3489   3.9e-15 ***
-## HLA          7.6919e-04  1.0669e-03  0.7210 0.4736272    
-## subtype:HLA -2.3914e-07  1.2242e-07 -1.9535 0.0552818 .  
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.6239422 
-## Reduction in Dispersion Test: 34.28943 p-value: 0</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and HLA chi-square test sum, Rfit</t>
+##                Estimate  Std. Error t.value p.value    
+## (Intercept) -2.9219e-17  2.0472e-03   0.000       1    
+## subtype      8.2192e-05  6.3863e-07 128.702  &lt;2e-16 ***
+## HLA          3.4629e-03  1.0877e-04  31.837  &lt;2e-16 ***
+## subtype:HLA -3.2708e-07  1.3722e-08 -23.835  &lt;2e-16 ***
+## ---
+## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
+## 
+## Multiple R-squared (Robust): 0.9142012 
+## Reduction in Dispersion Test: 806.2413 p-value: 0</t>
   </si>
   <si>
     <t>## Call:
 ## rfit.default(formula = Entropy ~ subtype + HLA, data = df)
 ## 
 ## Coefficients:
-##               Estimate Std. Error t.value   p.value    
-## (Intercept) 2.2243e-01 3.9883e-02  5.5770 5.482e-07 ***
-## subtype     6.2537e-05 4.8569e-06 12.8760 &lt; 2.2e-16 ***
-## HLA         9.1099e-05 4.1695e-05  2.1849   0.03263 *  
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.6342956 
-## Reduction in Dispersion Test: 54.63514 p-value: 0</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and HLA chi-square test sum with interaction, Rfit</t>
+##               Estimate Std. Error t.value p.value    
+## (Intercept) 5.8438e-17 3.1364e-03   0.000       1    
+## subtype     7.8080e-05 5.4985e-07 142.004  &lt;2e-16 ***
+## HLA         1.8285e-04 5.7771e-06  31.651  &lt;2e-16 ***
+## ---
+## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
+## 
+## Multiple R-squared (Robust): 0.9028929 
+## Reduction in Dispersion Test: 1059.962 p-value: 0</t>
   </si>
   <si>
     <t>## Call:
 ## rfit.default(formula = Entropy ~ subtype * HLA, data = df)
 ## 
 ## Coefficients:
-##                Estimate  Std. Error t.value   p.value    
-## (Intercept)  2.1856e-01  4.0171e-02  5.4407 9.576e-07 ***
-## subtype      6.3803e-05  5.5539e-06 11.4880 &lt; 2.2e-16 ***
-## HLA          1.0315e-04  4.8965e-05  2.1066    0.0392 *  
-## subtype:HLA -7.0884e-09  1.0000e-08 -0.7088    0.4811    
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.6418986 
-## Reduction in Dispersion Test: 37.0451 p-value: 0</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and HLA chi-square test median, Rfit</t>
+##                Estimate  Std. Error  t.value   p.value    
+## (Intercept)  2.9219e-17  3.1439e-03   0.0000         1    
+## subtype      7.8231e-05  6.2317e-07 125.5368 &lt; 2.2e-16 ***
+## HLA          2.0667e-04  6.7800e-06  30.4816 &lt; 2.2e-16 ***
+## subtype:HLA -7.9189e-09  1.4087e-09  -5.6214  5.53e-08 ***
+## ---
+## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
+## 
+## Multiple R-squared (Robust): 0.9041674 
+## Reduction in Dispersion Test: 713.9042 p-value: 0</t>
   </si>
   <si>
     <t>## Call:
 ## rfit.default(formula = Entropy ~ subtype + HLA, data = df)
 ## 
 ## Coefficients:
-##                Estimate  Std. Error t.value   p.value    
-## (Intercept)  2.7225e-01  4.7307e-02  5.7550 2.758e-07 ***
-## subtype      6.4127e-05  5.1665e-06 12.4120 &lt; 2.2e-16 ***
-## HLA         -1.7266e-03  1.1020e-03 -1.5668    0.1222    
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.6182529 
-## Reduction in Dispersion Test: 51.01537 p-value: 0</t>
+##               Estimate Std. Error t.value p.value    
+## (Intercept) 5.8438e-17 2.8518e-03   0.000       1    
+## subtype     7.6371e-05 5.7197e-07 133.521  &lt;2e-16 ***
+## HLA         1.9869e-03 1.2363e-04  16.072  &lt;2e-16 ***
+## ---
+## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
+## 
+## Multiple R-squared (Robust): 0.9037111 
+## Reduction in Dispersion Test: 1069.937 p-value: 0</t>
   </si>
   <si>
     <t>## Call:
 ## rfit.default(formula = Entropy ~ subtype * HLA, data = df)
 ## 
 ## Coefficients:
-##                Estimate  Std. Error t.value   p.value    
-## (Intercept)  2.4074e-01  5.5051e-02  4.3731 4.770e-05 ***
-## subtype      7.1115e-05  6.8089e-06 10.4446 2.705e-15 ***
-## HLA         -4.0558e-04  1.4271e-03 -0.2842   0.77720    
-## subtype:HLA -2.3205e-07  1.3230e-07 -1.7540   0.08438 .  
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.630396 
-## Reduction in Dispersion Test: 35.24903 p-value: 0</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and HLA chi-square test median with interaction, Rfit</t>
+##                Estimate  Std. Error t.value p.value    
+## (Intercept)  5.8438e-17  1.1743e-03   0.000       1    
+## subtype      8.1888e-05  6.3661e-07 128.633  &lt;2e-16 ***
+## HLA          4.6894e-03  1.4180e-04  33.069  &lt;2e-16 ***
+## subtype:HLA -3.9776e-07  1.4684e-08 -27.087  &lt;2e-16 ***
+## ---
+## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
+## 
+## Multiple R-squared (Robust): 0.9124757 
+## Reduction in Dispersion Test: 788.8555 p-value: 0</t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A72ED6-0FAD-B74E-89E2-B21629464E8A}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,47 +671,47 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="252" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="252" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="252" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
